--- a/emails.xlsx
+++ b/emails.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="texts2" sheetId="2" r:id="rId2"/>
-    <sheet name="prompts" sheetId="3" r:id="rId3"/>
+    <sheet name="texts3" sheetId="4" r:id="rId3"/>
+    <sheet name="texts4" sheetId="7" r:id="rId4"/>
+    <sheet name="prompts" sheetId="3" r:id="rId5"/>
+    <sheet name="incoming_emails_24July" sheetId="9" r:id="rId6"/>
+    <sheet name="outgoing_emails" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>MailPriority</t>
   </si>
@@ -136,25 +140,13 @@
     <t>Category prompt</t>
   </si>
   <si>
-    <t>Suggest a category for this email, not exceeding four words</t>
-  </si>
-  <si>
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Suggest if the sentiment is Positive, Negative or Neutral</t>
-  </si>
-  <si>
     <t>Urgency</t>
   </si>
   <si>
-    <t>Suggest if the urgency is High, Medium or Low</t>
-  </si>
-  <si>
     <t>Action Items</t>
-  </si>
-  <si>
-    <t>Summarize the actions for the email recipient, each action not exceeding seven words</t>
   </si>
   <si>
     <t>Prompt type</t>
@@ -189,16 +181,624 @@
     <t>Summarize</t>
   </si>
   <si>
-    <t>Summarize the email in a maximum of five points, each point not exceeding seven words</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>As an AI with expertise in language analysis, your task is to interpret the urgency of the following text by considering date of submission, if present any. otherwise suggest the urgency by analysing user tone, details provided by the language used and phrases used. Provide the urgency as either - high, medium, low. Only provide high, medium, low as response without explainations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As an AI with expertise in language and emotion analysis, your task is to analyze the sentiment of the following text. Please consider the overall tone of the discussion, the emotion conveyed by the language used, and the context in which words and phrases are used. Indicate whether the sentiment is  positive, negative, or neutral without any explainations.</t>
+    <t xml:space="preserve"> As an AI with expertise in language and emotion analysis, your task is to analyze the sentiment of the following text. Please consider the overall tone of the discussion, the emotion conveyed by the language used, and the context in which words and phrases are used. Indicate whether the sentiment is  positive, negative, or neutral. Please provide 1 liner justifications/reasoning for categorizing each label. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an AI with expertise in language analysis, your task is to interpret the urgency of the following text by considering date of submission, if present any. otherwise suggest the urgency by analysing user tone, details provided by the language used and phrases used. Provide the urgency as either - high, medium, low.Please provide 1 liner justifications/reasoning for categorizing each label. </t>
+  </si>
+  <si>
+    <t>hi all a/c teams, it’s going to be about a month we dropped the initial email and only a few confirmation have been received. we are still struggling to finalize our fy2023 business list as attached list of funds are still showing nav start date of fy2023 on navtra, whereas no investor onboarded yet or having any capital activity. requesting you all to share your respective fund’s tentative or actual start date so that fund setup /mdm setup team can update accordingly. thanks &amp; regards, hemant kumar verma transfer agency department from: fatcacc sent: wednesday, january 10, 2024 4:47 pm to: hedgeact at navbackoffice &lt;hedgeact@navbackoffice.com&gt;; mhcdigital at navbackoffice &lt;mhcdigital@navbackoffice.com&gt;; quantumdigital at navbackoffice &lt;quantumdigital@navbackoffice.com&gt;; wealthbard at navbackoffice &lt;wealthbard@navbackoffice.com&gt;; amber at navbackoffice &lt;amber@navbackoffice.com&gt;; jpr.navbackoffice (nav consulting) &lt;accounting@navbackoffice.com&gt;; mercury at navbackoffice &lt;mercury@navbackoffice.com&gt;; kairos at navbackoffice &lt;kairos@navbackoffice.com&gt;; gmicp at navbackoffice &lt;gmicp@navbackoffice.com&gt; cc: $$$$$$transfer.agency@navconsulting.net$$$$$$ &lt;transfer.agency@navconsulting.net&gt;; mdmsetup &lt;mdmsetup@navbackoffice.com&gt; subject: re: fund launch date movement from fy2023 to fy2024 hi a/c team, attached list of launch funds of fy2023, however no investor subscribed yet in the funds. could you please confirm the actual or tentative date of launch of your respective funds of fy2024. once you confirm, fund setup team and mdm setup team will update the same on navtra. thanks &amp; regards, hemant kumar verma transfer agency department (fatca-reporting team) from: fatca sent: friday, december 29, 2023 6:01 pm to: $$$$$$transfer.agency@navconsulting.net$$$$$$ &lt;transfer.agency@navconsulting.net&gt;; mdmsetup &lt;mdmsetup@navbackoffice.com&gt; cc: fatca &lt;fatca@navbackoffice.com&gt; subject: fund launch date movement from fy2023 to fy2024 hi fund setup/mdm setup team, we are on the last day of the financial year, however no investor created yet on navrta for attached list of funds, which have nav start date of fy2023. please liaise with a/c team (marked in bcc), to move the start date from fy2023 to tentative/actual date of fy2024 known to them, as we need to finalize fy2023 business list for reporting purpose. also please share termination letter with us, if any fund(s) terminated meanwhile which is unknown to us. thanks &amp; regards, hemant kumar verma transfer agency department (fatca-reporting team)'</t>
+  </si>
+  <si>
+    <t>Hi team, we are having trouble redeeming shares of new millennium fundamental hedged equity pp from irass account mmm90. we are having trouble because the position files being sent only include a value and not a share quantity. the current value of the fund showing in this account is $448, but the share quantity is only 362. how can we have the share quantity updated monthly along with the value?'</t>
+  </si>
+  <si>
+    <t>re: hashnote - mail control list + internal control questionnaire hi andrew, i trust all is well. i am following up in relation to the email below. we would be grateful if you could kindly action the below as we will need the api keys in advance, so we are able to process it in our audit tool, 1token, by year end. if not provided soon, this could cause delay in the audit process next year. do let me know if any issues arise. kind regards, hozaifaxxc from: hozaifaxxxc majidi sent: friday, december 1, 2023 4:31 pm to: andreas ridenr &lt;andrew@ecc&gt;  subject: hashnote - mail control list + internal control questionnaire hi andrew, i trust you are keeping well. by way of introduction my name is hozaiffer , and i am with ABC office. in preparation for the audit next year for bb master fund, bb  feeder fund qw (“ABC feeder”), hh feeder fund qw (“US feeder”), ABC international short fund ltd. (“fund”), (together, the “entities”), kindly find the attached internal control questionnaire for digital assets as well as the mail control list for the entities. please do assist to update the documents and send back to us for us to initiate our internal audit planning process. please assist to whitelist below ip addresses for api keys to work with 1token platform so that we can confirm balances from our end. 222.222.2222.2222.2222.2222.222.  kindly advise if there are any queries. looking forward to hearing from your side soon. kind regards, hozaiffer audit associate ABC office'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi anne, can you please look to see if the two distributions for M and N are reflected in the minsk portal? from the bank activity, and the errors/corrections on my end it shows no money was in fact distributed as it was returned/corrected. please let me know as soon as possible. thank you! nicole werdahl accounting manager. subject: fw:  income fund #22rt  ach return fyi, please see below. i’ve logged in and checked the account and the amounts have been credited back. dennis dennis  chief financial officer.  subject: re:  income fund #22rt- ach return good morning dennis, i apologize for the delay on getting back to you on this. we had an ach processing issue between 12/8-12/11. these transactions were part of that issue. i have corrected the postings from the 14th and you should see the credits for $20  and $100000.00. we apologize for any confusion, please let us know if we can assist any further or if you have any further questions. kindest regards, heather burlowskii ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello, we are in the process of reconciling our account and have run into an error. (see below email thread for additional reference.) we initiated an ach payment (2 recipients) and your system had an ach processing issue. below are the transactions to our account ending in xx0000. the amount seems to have been received by xyz trust as it shows in their online portal, as received. from the transactions shown below, the items dated 12/14 &amp; 12/22 cancel each other out if the recipient received payment. the item dated 12/8 is correct, but the non-paper credit correction was recorded prematurely on 12/22 as your banking ach system generated a correction on 12/22 afterward. the non-paper credit corrections need to be reversed. do you have this amount sitting in a suspense account on your side and unreconciled? thank you in advance for your assistance. -nicole nic accounting manager.  subject: fw:  income fund #22rta- ach return fyi, please see below. i’ve logged in and checked the account and the amounts have been credited back. dennis dennis subject: re:  income fund #22rt- ach return good morning dennis, i apologize for the delay on getting back to you on this. we had an ach processing issue between 12/8-12/11. these transactions were part of that issue. i have corrected the postings from the 14th and you should see the credits for $291 and $1000000.00. we apologize for any confusion, please let us know if we can assist any further or if you have any further questions. kindest regards, heather  </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: elisa@usecache.com
+Sent: Monday, Jul 15, 2024 01:27 PM
+To: Cache@navbackoffice.com
+Cc: broker.relation@navbackoffice.com; Rahul.Bansal@navconsulting.net; nav-qa@usecache.com; anya@usecache.com; transfer.agency@navconsulting.net
+Subject: Re: Urgent - July 12th GNU Closing
+CAUTION: External Email
+Thank you very much, Dheeraj!
+Yes, we are good with this.
+Just one note that the sheet you sent has the correct 7/12 pricing, but the title of the column still reads "Valuation by PSM on 07/11/2024."
+Elisa
+On Mon, Jul 15, 2024 at 9:29 AM Cache via NAV QA &lt;nav-qa@usecache.com&gt; wrote:
+Hello Elisa,
+Please find attached updated valuation and units for 07/12 close and let us know if this is fine for you. Our Transfer Agency team (copied here) will proceed this in our system after your approval.
+Also, note that as we are using 07/12 close so this CIK will be proceed on next available date i.e. 07/15/2024. Please let us know if think otherwise. 
+Best Regards,
+Dheeraj Agarwal
+NAV Backoffice - Fund Accounting Department
+NAV Fund Administration Group
+P: 1.630.954.1919 F: 1.630.596.8555
+www.navconsulting.net
+FA-Ticket No: 00799291
+Connect with us:
+Please rate your experience:
+😠 🙁 😐 🙂 😄 
+Disclosure. This message is intended for the addressee only and may contain confidential or privileged information. If the reader of this message is not the intended recipient, or an employee or agent responsible for delivering this message to the intended recipient, you are hereby notified that any dissemination, distribution, copying, or other use of this message or its attachments is strictly prohibited. If you have received this message in error, please notify the sender immediately by replying to this message and please delete it from your computer. NAV Fund Administration Group reserves the right to monitor all e-mail communications through their respective networks. Internet communications may not be secure or error-free and may contain viruses in addition to being subject to possible data corruption of accidental or intentional cause. This e-mail is not and should not be construed as an offer or the solicitation of an offer to purchase or subscribe or sell or redeem any investments.
+From: elisa@usecache.com
+Sent: Monday, Jul 15, 2024 09:05 PM
+To: broker.relation@navbackoffice.com; Rahul.Bansal@navconsulting.net
+Cc: nav-qa@usecache.com; anya@usecache.com; Cache@navbackoffice.com
+Subject: Re: Urgent - July 12th GNU Closing
+CAUTION: External Email
+@Rahul Bansal (NAV Consulting)
+This is a large client for us who will be investing much more in our next fund, and they are awaiting the July 12th pricing.  Can NAV please provide the updated file today with July 12th pricing?
+Thanks,
+Elisa
+On Mon, Jul 15, 2024 at 6:13 AM Elisa at Cache &lt;elisa@usecache.com&gt; wrote:
+Hi Dheeraj,
+In this case, 7/12 is meant to be the last date of the fund close, the same way we used 6/28 pricing for the 7/1 close.  Please update to have 7/12 pricing.  I think it's just a difference in terminology in that we are using the word "close" differently.
+Hi Nishant,
+I will check and get back to you.
+Thank you,
+Elisa
+On Mon, Jul 15, 2024 at 5:03 AM Broker Relation &lt;broker.relation@navbackoffice.com&gt; wrote:
+Hello Elisa,
+Thank you for the email below.  We have checked internally, however we are unable to see the accounts on the website. Could you please check and add the same to our below-mentioned existing website login and confirm once done.
+b.r@navbackoffice.com
+Let us know if any further information is required from our end in this regard.
+Regards,
+Nishant Jarwal
+Fund Accounting Department
+NAV Fund Administration Group
+NAV Consulting | NAV Cayman | NAV India
+Web: http://www.navconsulting.net
+🖂broker.relation@navbackoffice.com
+Connect with us
+From: Elisa at Cache &lt;elisa@usecache.com&gt; 
+Sent: Saturday, July 13, 2024 1:15 AM
+To: Broker Relation &lt;broker.relation@navbackoffice.com&gt;
+Cc: Cache &lt;nav-qa@usecache.com&gt;; anya &lt;anya@usecache.com&gt;; Cache at NAVBackoffice &lt;Cache@navbackoffice.com&gt;
+Subject: Re: Urgent - July 12th GNU Closing
+CAUTION: External Email
+Hi Nishant,  
+You will also need access to the following Apex accounts, which we already added the NAV email to B.R@NAVBACKOFFICE.COM.
+2HX05196
+2HX05195
+Regards,
+Elisa
+On Fri, Jul 12, 2024 at 12:12 PM Broker Relation &lt;broker.relation@navbackoffice.com&gt; wrote:
+Hi Elisa,
+Thank you for the clarification. Yes we agree and we have access of the below Apex account to our login whose user ID is b.r@navbackoffice.com, may you please confirm if there is any other apex account apart from the below one whose access we need to get. If not than we are good with Apex and as you stated yes BNY access is being worked upon. 
+2HX05050
+let us know if you need any other information in order to proceed further.
+Regards,
+Nishant Jarwal
+AS\AJ
+Fund Accounting Department
+NAV Fund Administration Group
+NAV Consulting | NAV Cayman | NAV India
+Web: http://www.navconsulting.net
+*broker.relation@navbackoffice.com
+Connect with us
+From: Cache at NAVBackoffice &lt;Cache@navbackoffice.com&gt; 
+Sent: Friday, July 12, 2024 21:44
+To: Elisa &lt;elisa@usecache.com&gt;
+Cc: Cache &lt;nav-qa@usecache.com&gt;; anya &lt;anya@usecache.com&gt;; Rahul Bansal (NAV Consulting) &lt;Rahul.Bansal@navconsulting.net&gt;; NAV Investor Services &lt;transfer.agency@navconsulting.net&gt;; Broker Relation &lt;broker.relation@navbackoffice.com&gt;
+Subject: Re: Urgent - July 12th GNU Closing
+Hello Elisa,
+Thanks for your email please find our response below in blue:
+Best Regards,
+Dheeraj Agarwal
+NAV Backoffice - Fund Accounting Department
+NAV Fund Administration Group
+P: 1.630.954.1919 F: 1.630.596.8555
+www.navconsulting.net
+FA-Ticket No: 00799291
+Connect with us:
+Please rate your experience:
+😠 🙁 😐 🙂 😄 
+Disclosure. This message is intended for the addressee only and may contain confidential or privileged information. If the reader of this message is not the intended recipient, or an employee or agent responsible for delivering this message to the intended recipient, you are hereby notified that any dissemination, distribution, copying, or other use of this message or its attachments is strictly prohibited. If you have received this message in error, please notify the sender immediately by replying to this message and please delete it from your computer. NAV Fund Administration Group reserves the right to monitor all e-mail communications through their respective networks. Internet communications may not be secure or error-free and may contain viruses in addition to being subject to possible data corruption of accidental or intentional cause. This e-mail is not and should not be construed as an offer or the solicitation of an offer to purchase or subscribe or sell or redeem any investments.
+From: elisa@usecache.com
+Sent: Friday, Jul 12, 2024 09:24 PM
+To: Cache@navbackoffice.com
+Cc: Rahul.Bansal@navconsulting.net; nav-qa@usecache.com; anya@usecache.com; transfer.agency@navconsulting.net; broker.relation@navbackoffice.com
+Subject: Re: Urgent - July 12th GNU Closing
+CAUTION: External Email
+Hi Nishant, Dheeraj, and Rahul,
+Most importantly, please confirm as soon as possible today that you received the broker activity for this July 12th investor uploaded to FileCap yesterday.  Please confirm that all is set for the July 12th closing for this client.  NAV: Yes, we have received the same and already sent the CIK value and units for your review and approval.
+As for the other points here,
+We will follow up on the BNYM accounts and get back to you. NAV: Okay.
+We completed all outstanding items in the onboarding portal.  Please let us know exactly what you need for the Apex accounts.  As mentioned, we set them up with the same email address as for Cache Exchange Fund I, of B.R@NAVBACKOFFICE.COM. NAV: Our broker relation team (copied here) can suggest on this.
+Given the amount of the sub-period accounting fee, please allocate to the one July 12th investor. NAV: Okay, noted on this.  Please confirm receipt of this request.
+Thank you,
+Elisa
+On Fri, Jul 12, 2024 at 7:48 AM &lt;Cache@navbackoffice.com&gt; wrote:
+Hello Elisa,
+Just to highlight one point here related to below highlighted that on the onboarding portal we have not received any information regarding the Apex account of both GNU and Unix. So, could you please provide us the information regarding this so that our broker relation team can check for the access.
+Also, note that currently we are working on the below accounts of BNYM for GNU and Unix. Please suggest if we are missing anything here:
+GNU_BNYM_325**417
+UNIX_BNYM_325**418
+Also as per our  understanding these BNYM accounts has 2 sub account as well:
+468****710
+668****780
+Best Regards,
+Dheeraj Agarwal
+NAV Backoffice - Fund Accounting Department
+NAV Fund Administration Group
+P: 1.630.954.1919 F: 1.630.596.8555
+www.navconsulting.net
+FA-Ticket No: 00799291
+Connect with us:
+Please rate your experience:
+😠 🙁 😐 🙂 😄 
+Disclosure. This message is intended for the addressee only and may contain confidential or privileged information. If the reader of this message is not the intended recipient, or an employee or agent responsible for delivering this message to the intended recipient, you are hereby notified that any dissemination, distribution, copying, or other use of this message or its attachments is strictly prohibited. If you have received this message in error, please notify the sender immediately by replying to this message and please delete it from your computer. NAV Fund Administration Group reserves the right to monitor all e-mail communications through their respective networks. Internet communications may not be secure or error-free and may contain viruses in addition to being subject to possible data corruption of accidental or intentional cause. This e-mail is not and should not be construed as an offer or the solicitation of an offer to purchase or subscribe or sell or redeem any investments.
+From: elisa@usecache.com
+Sent: Friday, Jul 12, 2024 12:30 AM
+To: Rahul.Bansal@navconsulting.net
+Cc: Cache@navbackoffice.com; transfer.agency@navconsulting.net; satyajits@navbackoffice.com; nav-qa@usecache.com; anya@usecache.com
+Subject: Re: Urgent - July 12th GNU Closing
+CAUTION: External Email
+Thank you for the quick response, Rahul.
+Documents have been sent via FileCap.  Please confirm receipt.
+We will share the broker activity as soon as the shares have moved.  On a related note, I still haven't heard back from NAV as to what is missing in order to grant broker access.  Both GNU and Unix Apex accounts were set up with NAV as the email address the same way they were for Cache Exchange Fund I.  Please let us know if any action is needed on our end.
+Thanks for the details around our options for the fee.  If NAV can share how much the additional fee is, we can then make a final decision regarding allocation.
+Thanks again,
+Elisa
+On Thu, Jul 11, 2024 at 11:42 AM Rahul Bansal (NAV Consulting) &lt;Rahul.Bansal@navconsulting.net&gt; wrote:
+++@NAV Investor Services @Satyajit Samal (NAV Backoffice)
+Hello Elisa,
+I am adding our TA team here to confirm once they receive the document.
+And I believe this investor will also carry the contribution in kind so please share the broker statement/activity report once they transfer the shares to fund until our team get broker access to process the activity in our records.
+Regarding additional fee, do you mean that this additional stub-period fee will born by fund or by specific investor who is subscribing into fund instead of all investor ? If your intention here to charge this additional fee to specific investor we can also manage this in accounting record where our team can allocate this to newly subscribing investor only.
+If your intention is to not charge this fee to any of the investor and if fund is going to bear, then it’s totally fine.
+Let me know if any question.
+Regards,
+Rahul Bansal
+Senior Manager - Fund Accounting Dept.
+NAV Fund Administration Group
+1 Trans Am Plaza Drive, Suite 400
+Oakbrook Terrace, IL 60181
+P: 1.630.954.1919 x 133  F: 1.630.954.1945
+rahul.bansal@navconsulting.net
+www.navconsulting.net
+Connect with us:
+From: Elisa at Cache &lt;elisa@usecache.com&gt; 
+Sent: Thursday, July 11, 2024 1:33 PM
+To: Cache at NAVBackoffice &lt;Cache@navbackoffice.com&gt;; Rahul Bansal (NAV Consulting) &lt;Rahul.Bansal@navconsulting.net&gt;
+Cc: Cache &lt;nav-qa@usecache.com&gt;; Anya Cross &lt;anya@usecache.com&gt;
+Subject: Urgent - July 12th GNU Closing
+CAUTION: External Email
+Hello NAV Team,
+We need to hold a July 12th closing of GNU.  
+This will include one additional investor.  Documents will be sent to NAV via FileCap within the next 30 minutes.
+It is imperative that the fund accounting reflects a July 12th closing.  Please confirm, and also confirm receipt of the documents.
+To note, we do acknowledge that one-off closings may incur additional fees.  If this applies to this case, please bill any of the additional expenses incurred directly to us/Cache, as opposed to applying them to The Fund expenses, where clients would absorb the additional cost.  We do not want clients bearing the cost of the additional fees.
+Thank you very much,
+Elisa
+ </t>
+  </si>
+  <si>
+    <t>From: mic.br@ablc.ai
+Sent: Wednesday, Jul 10, 2024 07:04 PM
+To: Vatic@navbackoffice.com
+Cc: accounting@navbackoffice.com; transfer.agency@navconsulting.net;
+Subject: Re: Monthly Reports | June, 2024 | XYZ Fund I, LLC
+CAUTION: External Email
+The statements to the external investors are fine, however I do want to accrue for the missed Eurex charges - invoices are attached. Please note that they are in EUR and should be converted. Since these are considered overhead expenses they should only impact the Vatic Investments statement and fund level reporting. 
+Can you please send an updated NAV pack? Please do not resend the investor statements as the other investors should not change.
+Mic Br
+Controller</t>
+  </si>
+  <si>
+    <t>From: St &lt;wert @abc.com&gt; Sent: Saturday, July 13, 2024 5:17 AM To: Backtrusdst at NAVBackoffice &lt; Backtrusdst @navbackoffice.com&gt; Cc: FundSupport(Backtrusdst) &lt;fundsupport@ Backtrusdst.com&gt; Subject:URGENT 2024-07-12 BrandyWinz NAVs Importance: High
+CAUTION: External Email
+Hi NAVC Team,
+The NAV for Summit Large Cap - 1122345 is showing a decrease of (0.62%) this evening when compared to yesterday; however, both custody portals are showing a net gain.
+Can you please review and advise?</t>
+  </si>
+  <si>
+    <t>From: Cp NoLimit &lt;ri@cp.com&gt; 
+Sent: Monday, July 1, 2024 4:48 AM
+To: NAV Investor Services &lt;transfer.agency@navconsulting.net&gt;
+Cc: Madhusudan Mittal (NAV Consulting) &lt;Madhusudan.Mittal@navconsulting.net&gt;; Cp at NAVBackoffice &lt;cp@navbackoffice.com&gt;
+Subject: Re: CP NoLimit Feeder I | Important Communication | unz zilui
+CAUTION: External Email
+NAV Team,
+What is going on?
+You sent a notice and request for confirmation of bank account to an investor who has already been defaulted and removed.
+You sent two emails to the same contact inquiring about wire information for two different investors. unz zilui was the previous investor whose interest was transferred to zzz yrt .
+Is there a problem with your records?
+This is extremely frustrating and frankly causes me great concern about your ability to carry out the admin function for our funds.  Please help me to understand what exactly the issue is.
+MS - I’d like to understand how this sort of oversight can occur with something as important as bank account confirmation for a distribution.
+Regards,
+Jackson &amp; Jackson</t>
+  </si>
+  <si>
+    <t>From: Enri&lt;edv@act.com&gt; 
+Sent: Wednesday, July 3, 2024 9:57 AM
+To: crst (NAV Consulting) &lt;crst. @navconsulting.net&gt;
+Subject: Re: Question of investment account vs cash flow
+CAUTION: External Email
+Crst,
+We had a call today with Manish (who I understand is the EDV_ACT manager) and it was a bit rocky.
+David is a CPA and he got pretty irritated during the call as Manish didn’t give us sufficient confidence when we asked to explain our accruals.
+But it got worse when Manish kept saying that can take our management fees out when we want until I told him that I do not see how is that possible, we need to disinvest from our underlying funds as we have no cash in a bank account. He concurred with that, but I should not be the one bringing that up.
+David asked that Manish brings his supervisor to the next call.
+I just wanted to let you know, and I do not want to disrupt your holiday, this can wait for next week when you are back.
+Have a great 4th of July
+Enri
+Enri
+EDV Captital Management</t>
+  </si>
+  <si>
+    <t>Suggest a category for this email, not exceeding four words. If large email chain is there, only consider first two recent emails.</t>
+  </si>
+  <si>
+    <t>Suggest if the sentiment is Positive, Negative or Neutral. Please provide 1 liner justifications/reasoning for categorizing each label. If large email chain is there, only consider first two recent emails.</t>
+  </si>
+  <si>
+    <t>Suggest if the urgency is High, Medium or Low. Please provide 1 liner justifications/reasoning for categorizing each label. If large email chain is there, only consider first two recent emails.</t>
+  </si>
+  <si>
+    <t>Summarize the actions for the email recipient, each action not exceeding seven words.If large email chain is there, only consider first two recent emails.</t>
+  </si>
+  <si>
+    <t>Summarize the email in a maximum of five points, each point not exceeding seven words.If large email chain is there, only consider first two recent emails.</t>
+  </si>
+  <si>
+    <t>Suggest a category for this email, not exceeding four words.</t>
+  </si>
+  <si>
+    <t>Suggest if the sentiment is Positive, Negative or Neutral. Please provide 1 liner justifications/reasoning for categorizing each label.</t>
+  </si>
+  <si>
+    <t>Summarize the actions for the email recipient, each action not exceeding seven words.</t>
+  </si>
+  <si>
+    <t>Summarize the email in a maximum of five points, each point not exceeding seven words.</t>
+  </si>
+  <si>
+    <t>team, please check below email and take care asap. regards, yogesh chellani senior manager - fund accounting dept. nav fund administration group nav consulting | nav cayman | nav backoffice  from: abc comp &lt;abc@funding.com&gt; sent: tuesday, january 2, 2024 1:00 pm to: nav investor services &lt;transfer.agency@navconsulting.net&gt;; yogesh chellani (nav consulting) &lt;yogesh.chellani@navconsulting.net&gt;; varun agarwal (nav consulting) &lt;varun.agarwal@navconsulting.net&gt; cc: subject: complaint for service  nav team, i had been enjoying working with your team until today. as you are fully aware, we are expected to launch the fund this month and today is the day that we send countersigned subscription documents to investors and call capitals. the plan was to follow the industry standard and ask nav, the fund administrator, to send the capital call notice with countersigned subscription documents. i sent an email to transfer.agency@navconsulting.net on thursday, 12/28/2023 to confirm the plan but have gotten no response! i took the initiative and sent all countersigned subscription documents over the holiday weekend to transfer.agency@navconsulting.net. however, there has been neither confirmation of receipt of my email nor any response otherwise. pressed by time, after consulting with the us legal counsel, i sent out the subscription documents myself, and cc’d transfer.agency@navconsulting.net. i demand a response from your team to explain the situation and the lack of response on this important matter to us asap. Regards abc comp Funding US</t>
+  </si>
+  <si>
+    <t>rta, please reach out to the clients regarding overdrafts. abc technology managers fund #1 ol $77.21- pl $358.09- can you please contact the client to fund the account(s) or notify us if they no longer want the account(s) open and we can refund the fee and close them. thank you in advance!! kathy adams assistant manager – transfer agency dept. banking and treasury operations nav fund administration group nav consulting | nav cayman | nav backoffice  from: ross, david rose c &lt;ross2@abc.com&gt; sent: tuesday, january 23, 2024 9:54 am to: kathy adams (nav consulting) &lt;kathy@navconsulting.net&gt; subject: accounts overdrawn  hi kathy, we have just two accounts that remain overdrawn this morning from the monthly analysis fees that posted back on january 16th. abc technology managers fund #1 ol $77.21- pl $358.09- can you please contact the client to fund the account(s) or notify us if they no longer want the account(s) open and we can refund the fee and close them. thank you in advance!! hope the new year is off to a great start for you! best, ross senior vice president | commercial bkg</t>
+  </si>
+  <si>
+    <t>hi team, i need you to update investor on below – bill (the investor) is calling as he needs status on when he’ll get payment. is accounting done?…finalized?when are wires going? thanks --------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- paula  vice president – fund accounting and transfer agency dept. nav fund administration group nav consulting | nav cayman | nav backoffice  from: nav investor services &lt;transfer.agency@navconsulting.net&gt; sent: friday, january 19, 2024 4:10 am to: bill@harbscience.com cc: paula  (nav consulting) &lt;paula.@navconsulting.net&gt;; silverarc@navbackoffice.com subject: redemption payments timeline || silverarc capital alpha fund x. hello witty, redemptions for your investment in silverarc capital alpha fund x , are booked for december 3, 2022, and payment will be released after the finalization of december month accounting, for which our accounting team is actively working on finalizing reports, and the same is expected to be completed by early next week. thank you, sandhya  transfer agency department nav fund administration group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello anshul, as discussed with shreya, according to the detailed equity schedule, all the investors were granted shares at nav $1,000 each, with the exception of pat, who received shares at nav $1029 . would you kindly advise pat of the difference in share issuance as per below highlighted point. regards, saloni  fund accounting department (monthly reporting-audit) nav fund administration group nav consulting | nav cayman | nav backoffice from: warren  &lt;warren.@c.com&gt; sent: thursday, january 18, 2024 01:32 to: cvv at navbackoffice &lt;cvv@navbackoffice.com&gt;; nav_fs &lt;fsvrc@navbackoffice.com&gt;; audit at navbackoffice &lt;audit@navbackoffice.com&gt; cc: stevie (cvv ag) &lt;sh@dialcvvectic.ch&gt;; subject: cvv - moo sp- 12.11.2022 audit importance: high  hi navc team, i trust all is well. i am creating a separate email trail to track the progress of the moo funds. please see attached our comments on the draft fs of the moo funds. you’ll notice that we made several changes in the draft fs ourselves which is shown in track changes – please let us know if you have any questions on these. other requests: share capital – noted that the is a difference of 70.42 shares relating to series 0222 in the master fund. can you please explain why the total number of shares for this series shouldn’t be 7,995 when $7,995,000 is the usd amount issued at $1,000 per share. difference is coming from investor, pat  (2429.5529 vs 2,500 shares). see extracts per fs below. provide the signed subscription agreement for the below 2x subscriptions – don’t believe we received this previously: we’ll appreciate it if you could please also provide us with the below for our subsequent events consideration: nav packs – oct 2023 to jan 2024all bank and broker statements from jan 2023 to jan 2024after ye shareholder transaction report from jan 1, 2023, to jan 17, 2024 let us know of any questions. many thanks. warren  senior manager </t>
+  </si>
+  <si>
+    <t>team, see below. mikey is frustrated because he feels that we are not answering directly with any concrete dates. can we give him some concrete dates…if not, why not? also….can we start performance estimates for new funds now? we can see the amount that was initially invested in the fund and how they have done so far??? thanks, dbg from: mikey mikey &lt;mikey@financial.com&gt; sent: wednesday, january 17, 2024 11:00 am to: brooke tshall (nav consulting) &lt;brooke.brooke@navconsulting.net&gt; subject: kio estimates  good morning brooke, could you give me a call at your earliest to discuss the status of sfg kio &amp; sfg kio inst. estimates and zca kio final valuation? thank you, mikey mikey  vice president, asset management operations 5000 horizons dr. lumbus , oh 43220 main: mmh@ssswe-.com secure file share zzzxn$$$$$$s top ria firms for 2023 ssswe-.com investment advisory services offered through ssswe  advisors, llc, an sec registered investment advisor. registration as an investment advisor does not imply a certain level of skill or training.\u200b \u200b\u200b \u200bon september 18, 2023, ssswe placed 21st on this list for the year 2023. barron’s weighs dozens of qualitative and quantitative components, including assets managed, the size and experience of teams, regulatory record of the advisors and firms, succession planning, technology spending, and staff diversity based on a 102 question survey. investment performance isn$$$$$$t an explicit component because not all advisors have audited results and because performance figures often are influenced more by clients$$$$$$ risk tolerance than by an advisor$$$$$$s investment-picking abilities. no fees in any years awarded were paid or incurred to receive this recognition. $0 was spent in 2023, $6,940 in 2022 and $8,500 was spent in 2021 for marketing collateral associated with the award to be used on social media, our website, and email signatures.</t>
+  </si>
+  <si>
+    <t>hello team, please find the mom points related to the client call held on january 17, 2024. @ankit baraya (nav backoffice) – please add if i missed anything on the client query part. fund name rotten tomatoes discussion points s. no. points for attention responsible team 1 client is working on the missing items and will provide these soon investor compliance, periodic dd, fund screening 2 for subscription of investor “polly” client will be returning the funds ($ 1 mil) to the bank account from which the money was received and then investor will be sending the money with the correct bank account. investor is working on opening up the bank account. the question that we need to respond to client from compliance stand point – whether nav will book transaction as of dec 1, 2023 or will it be some date in jan 2024. technically investor transferred the money, just from another account and as they transferred the money, the fund started trading. additionally, if the transaction is booked for jan 2024, there will be issues with managing the p&amp;l that the fund has already accumulated. so, the client wants to have a clear answer on possibility of booking the money as of dec 1, 2023 for the investor polly. subscription, wire other details date of call- 1/17/2024 | time of call- 8:30 pm ist | duration of call – 20 minutes. attendees rta – abhishek sharma, dhruwal patel accounting – ankit baraya client – adam, brock, luzzi thanks &amp; regards, abhishek sharma transfer agency department nav fund administration group nav consulting | nav cayman | nav backoffice</t>
+  </si>
+  <si>
+    <t>Professionalism</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Spelling</t>
+  </si>
+  <si>
+    <t>List down all spelling mistakes in the email</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>List down all grammatical mistakes in the email</t>
+  </si>
+  <si>
+    <t>Rewrite</t>
+  </si>
+  <si>
+    <t>Hello,Today is end of month, so please provide a screenshot of each exchange, wallet or OTC counterparty at month end date cut off time which shows quantity of crypto/tokens/coins/derivatives held in each of the Fund's exchange/wallet/counterparty. If there are any new exchange/wallet opened during this period in fund then please upload read-only API keys/ Secret Keys/ Wallet Addresses on NAV web portal. As an alternate you can also upload it directly on our secured link (https://filetransfer.navconsulting.net/FileCap/quick-upload?id=rt79TflVkH7OjV4R4OsUn1XUm) as well.
+Thank you,
+NAV Fund Administration Group</t>
+  </si>
+  <si>
+    <t>Suggest a revision of the email which is more clear, more professional and which is free of spelling mistakes and grammatical mistakes, wherever required.</t>
+  </si>
+  <si>
+    <t>How would you rate this email for professionalism on a scale of 1 to 5, 5 being the most professional. Provide the rating with a supporting 1 liner justification for the given rating.</t>
+  </si>
+  <si>
+    <t>How would you rate this email for clarity on a scale of 1 to 5, considering if all the points are being stated clearly, 5 being the most clear. Provide the rating with a supporting 1 liner justification for the given rating.</t>
+  </si>
+  <si>
+    <t>mail_type</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Multiple Threads-Zip1</t>
+  </si>
+  <si>
+    <t>Multiple Threads-zip2</t>
+  </si>
+  <si>
+    <t>caution: external email adam - are you okay with nav sending xxxx  2012 family trust the redemption form? investor is class b and has 3 tranches. based on the below, the investor is able to redeem the tranches effective 12/1/2024, 4/1/2025, and 9/1/2025 respectively. investor name investor no feeder class class mgmt fee perf fee initial sub date first available redemption notice by: subsequent redemption date subsequent notice date xxxx 2012 family trust 1023 onshore class b interests b 1.00% 15.00% 12/1/2018 12/1/2021 9/2/2021 12/1/2024 9/2/2024 xxxx 2012 family trust 1023_a onshore class b interests b 1.00% 15.00% 4/1/2019 4/1/2022 1/1/2022 4/1/2025 1/1/2025 xxxx 2012 family trust 1023_b onshore class b interests b 1.00% 15.00% 9/1/2019 9/1/2022 6/3/2022 9/1/2025 6/3/2025 thanks, Lousy lions 222-222-0223 lousy.lions@partners.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution: external email your document has been completed view completed document steveensen  investments inc. steveensen@chris.com all parties have completed complete with docusign: chri lp ii redemption 10-1-24 anne bellows lee nav 2007. please find attached the requested redemption form. please use an effective date of 10/1/24. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution: external email just so i understand, he's being charged 2.5% management fee and performance allocation fee of 25% right? anyone who has management fees should have performance allocation fees as well. taryn on tue, jul 9, 2024 at 11:57 am &lt;transfer.agency@navconsulting.net&gt; wrote: hello taryn, we have booked a transfer transaction as per attached spreadsheet for the effective date of july 01, 2024. please refer our comments below and confirm: let us know if you have any objection to the transfer. we will move high water mark of transferor and loss carry forward of regular class to transferee unless you advise otherwise. we will keep the same fee structure of transferor for the transferee unless you advise otherwise. we will move lock up period of regular class to transferee unless you advise otherwise. akaash mehanta transfer agency department nav fund administration group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution: external email hi nav team, can you please provide the following additional information? are the redemptions in the detailed investors allocations schedule related to distribution for the promissory note or actual redemptions?how is the gross income determined for each investor?are all the expenses by the fund paid by sttone management inc for the fund?how come some of the transfers are being transferred to the same person on ytd detailed investors allocation schedule?how come the documents uploaded to the portal that are indicated transfers are promissory notes versus transfer documents? can you please provide transfer documents that indicates who the transferee and transfer for these investors? can you please provide the executed subscription documents for these investors, i did not see them in the file that you provided to the portal? regards, corrss fed ai audit senior associate d 322.222.1922 </t>
+  </si>
+  <si>
+    <t>caution: external email hello, concerning the subscriptions listed below: confirm the wire was received for the referenced client(s) confirm the documents for the referenced client(s) are in good order provide the estimated transmission date that the aip activity file will be uploaded to the dtcc. if you will not be providing the aip activity file in the near future, please confirm the effective date in order to reduce lead time for booking the position in the investors sinsk account. lastly, please confirm the investment class/ series is listed correctly below please review and complete the below confirmation template: order number last 4 of sinsk account client registration investment name wire date purchase amount wire received doc in good order estimated transmission date effective date 671449 6987 charly sinsk &amp; co., inc.  jef m charley sinsk &amp; co inc stormes real estate income fund lp 2024-07-03 $ 75000.00 y/n y/n as custodian for clients with investments in the following securities, charley sinsk &amp; co., inc. ( sinsk ) is required to confirm client transactions with the general partner, administrator, or transfer agent. ABC technologies has been contracted to perform this service on behalf of sinsk . if you have questions, please reply to apoltrading@abc.com. thank you for your attention in this matter. apol trading abc market services, llc | brokerage solutions</t>
+  </si>
+  <si>
+    <t>caution: external email nav, i missed the other pages of items in the portal. i am collecting these items, but what are these for jaimen perez: investor eligibility status: verify basis of accreditedinvestor eligibility status: verify basis of qualified clientinvestor's bank wiring instructions (for fatf/aml compliance and future payments). i do not believe we supply nav with proof of verification for investor status. and the wire instructions should be in the subscription document. thanks, daniel</t>
+  </si>
+  <si>
+    <t>caution: external email one of the three (robert abc) is transferring his position to sinsk. He's submitted the paperwork, you'll hopefully hear something</t>
+  </si>
+  <si>
+    <t>caution: external email hello, please process the attached abc corp (mist) invoices with the next batch. please set up 2 separate wires (one for master and one for composite). please allocate the attached invoices based on the attached breakdown and below. please set up a separate wire for each fund, also be sure to reference the invoice and account number on the wires. master fund/xyz - $21,040.97 (100% paid by master fund, $11,118.53 reimbursed by xyz) composite - $734.05 please make sure to reference the account id and the invoice numbers with the payment. thanks, doug doug , cpa controller p +1 222 2222 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution: external email hello, i have not received an email with separate instructions as of now. thank you, svetlin on wed, jul 17, 2024 at 5:45 pm nav investor services &lt;transfer.agency@navconsulting.net&gt; wrote: good morning svetlin, hope this email finds you well. your login has been created under nav's wt company id 12234. you should have received a separate email with login instructions. i believe this account was loaded at nav for dual control cash controls at your request. what that means is the administrator can only enter payment data on the bank platform, and that the payment is only paid out after the funds manager separately approves and releases the payment on the bank platform. this provides the effective control point: no transaction can be paid out unless both manager and administrator perform their assigned roles. the administrator cannot bypass the manager and approve/release the payment, and the manager cannot bypass the administrator and initiate a payment. we like to batch your other payments wherever possible, so we enter we'll enter on the bank website your redemption payments, payments of invoices, and payments of your own fees at the same time in one batch of wires after accounting package approval. all invoices and also your requests for payments (or for wires) can be sent to transfer.agency@navconsulting.net . attached nav's dual control in detail. please let us know if you have any other questions or concerns regarding bank setup. kathy kathenson assistant manager  transfer agency dept. banking and treasury operations nav fund administration group nav consulting | nav cayman | nav backoffice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution: external email hello, i set up the login and rsa and was able to access the account. i need to be able to set up wire transfers which are disabled at the moment, thank you stylein on wed, jul 17, 2024 at 5:42 pm nav investor services &lt;transfer.agency@navconsulting.net&gt; wrote: withrust access your customer id is 12223323 your user id: styleincall withrust treasury management at 222-222-9222 to obtain a temporary password.a passcode is also required to login. your passcode is an 8 digit pin plus an 8 digit token code. you will select your own pin during your first login. </t>
+  </si>
+  <si>
+    <t>Hello Charlie,_x000D_
+ _x000D_
+Thanks and noted on the below explanation._x000D_
+ _x000D_
+As per the prior email, we do take a note that the investor â€œNon-controlling interestsâ€  constitutes list of investors and we do acknowledge receipt of their accredited status questionnaire.  _x000D_
+ _x000D_
+Please note that since Non-controlling interests   in itself is an investor investing in US Logistics Fund , we would require the due diligence documents for Non-controlling interests  as listed below:-_x000D_
+ _x000D_
+1. Copy of Articles of Association/Partnership Agreement._x000D_
+2. Partnership's registration certificate / Business license with applicable government authority._x000D_
+3. A signed and dated Form W9. _x000D_
+4. Registered Address. _x000D_
+ _x000D_
+Documents can be uploaded in below encrypted Filecap link by mentioning " 1122345 " reference number in the subject line _x000D_
+ _x000D_
+https://filetransfer.navconsulting.net/FileCap/quick-upload?id=QuHkT24RMwqf7kYc3b7kz23rrtytyuo_x000D_
+ _x000D_
+We are looking forward to hear back from you, please do let us know if you any questions._x000D_
+ _x000D_
+_x000D_
+ _x000D_
+Avinash Anthoney_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>Hello Sal,_x000D_
+ _x000D_
+Thank you for sharing the following documents. We extracted all the available documents from google drive and reviewed them._x000D_
+ _x000D_
+However, we are unable to locate any subscription document for the investors in our records, as most of the documents are blank formats._x000D_
+ _x000D_
+Additionally, as per the attached investor details file received initially, we observed following 2 investments through custodian "Vantage":_x000D_
+ _x000D_
+1.	Ralph H IRA dated 02.15.2019 for $50,000. _x000D_
+2.	David Rose IRA dated 5.14.2019 for $100,000. _x000D_
+Though, both of these investors have not been identified in the master file (attached) shared with us on 03.25.2024._x000D_
+ _x000D_
+Therefore, request you to please check and confirm if these are active investors and identify their respective transactions._x000D_
+ _x000D_
+Further, please share the investor's signed subscription documents invested into the fund "DDF Partners , LLC"._x000D_
+ _x000D_
+Regards,_x000D_
+ _x000D_
+Neetika Khandelwal_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>Hello Sal,_x000D_
+ _x000D_
+Could you please provide us an update on the pending documents listed below:_x000D_
+ _x000D_
+Request you to share a timeline when we can expect these. In case of any queries, we can connect over a call._x000D_
+ _x000D_
+Looking forward for an early response._x000D_
+ _x000D_
+Particulars	Name	Current Missing_x000D_
+Fund 1	Summertime Sadness M2 , LLC	Copy of LLC's registration certificate / business license with applicable government authority,_x000D_
+Private Placement Memorandum,_x000D_
+Revised Subscription Document (Comments attached) _x000D_
+List of Authorized Signatories,_x000D_
+Due Diligence Questionnaire_x000D_
+Fund 2 DDF Partners , LLC	Private Placement Memorandum,_x000D_
+Revised Subscription Document (Comments attached)_x000D_
+W9 Form,_x000D_
+List of Authorized Signatories,_x000D_
+Due Diligence Questionnaire_x000D_
+Manager	DDF Partners Capital Management, LLC	LLC / Operating Agreement,_x000D_
+Copy of LLC's registration certificate / business license with applicable government authority,_x000D_
+Register of Directors,_x000D_
+Register of Members,_x000D_
+List of Authorized Signatories_x000D_
+Managing Partner/Managing Member of Manager	Salvatore Damon	A copy of proof of address such as Driverâ€™s License or utility bill or bank statement or any other proof of address bearing current address,_x000D_
+Due Diligence Questionnaire_x000D_
+ _x000D_
+_x000D_
+Thanks,_x000D_
+ _x000D_
+Mehak Taneja_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>caution: external email hi tiana, based on the email below, ryan ryan's  investment was not accepted into mmg fund lp. can you please confirm that the attached banking instructions are correct and confirm that ach is preferred over wire to return funds? thanks, monte monte (92) 222-1222 2229 kirby parkway, suite 1-208 memphis.</t>
+  </si>
+  <si>
+    <t>I hope you're having a great week! _x000D_
+ _x000D_
+Thanks for waiting on the information regarding pending documents required for the investors and  attached is current list of missing KYC - ID information for the respective investors listed in the spreadsheet with regards to Fund â€œ  Fund Manager Groupâ€. (Refer Column E &amp; F in attached file). Fund password applies to open the documents._x000D_
+ _x000D_
+Please note we have not included below funds in the attached spreadsheet as historical data are still pending to be received from your end, request you to send the same to us at the earliest._x000D_
+ _x000D_
+* xyz GP Investments _x000D_
+* ghi GP Investments_x000D_
+* POIL II GP Investors_x000D_
+* US Logistics Fund_x000D_
+ _x000D_
+Request you to upload the pending documents in encrypted Filecap link by mentioning "1122345" reference number in the subject line._x000D_
+ _x000D_
+https://filetransfer.navconsulting.net/FileCap/quick-upload?id=QuHkT24RMwqf7kYskjdkjsfkjdsf32284u9_x000D_
+ _x000D_
+Thanks a ton for your co-operation in getting the pending requirements cleared off._x000D_
+ _x000D_
+ _x000D_
+Thanks &amp; Regards_x000D_
+ _x000D_
+Avinash Anthoney_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>Updated W8-BEN-E attached._x000D_
+ _x000D_
+Authorized Signatories:_x000D_
+BTC GP: John Jhony_x000D_
+BTC Investments: John Jhony_x000D_
+US Logistics Fund: John Jhony_x000D_
+ _x000D_
+I've just uploaded the original Accredited Investor Questionnaires that each of the investors that make up whatâ€™s referred to as â€œnon-controlling interestsâ€ and these include, among other information, the EINâ€™s of each investor._x000D_
+ _x000D_
+Thanks,_x000D_
+ _x000D_
+Charlie Trainor_x000D_
+Vice President, Accounting</t>
+  </si>
+  <si>
+    <t>Hello Michael,_x000D_
+_x000D_
+Thank you for providing the document. We also require the below mentioned document for The Marley  Revocable Trust._x000D_
+ _x000D_
+1. 	Copy of the complete Trust Document OR Trust Certificate (You can also complete the attached form as an alternate of Trust document)_x000D_
+2. A completed, signed and dated copy of the IRS Form W-9. (Blank Form is attached for your convenience)_x000D_
+ _x000D_
+Also, you can upload the documents in the below Filecap Secure link by mentioning "1122345" reference number in the subject line._x000D_
+ _x000D_
+https://filetransfer.navconsulting.net/FileCap/quick-upload?id=QuHkT24RMwqf7kYc3xcdjfreui45wwds_x000D_
+ _x000D_
+Regards,_x000D_
+ _x000D_
+Rupika Rana_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>Hello Prem &amp; Aman_x000D_
+ _x000D_
+Can you please look in to below email and advise us further course of action, wherein client is informing us that  for the GP entities that are investors in funds (and are not funds themselves) they don't request BO info for owners of less than 25%._x000D_
+ _x000D_
+For your ease of reference listed below are the investors with the document required from compliance perspective we had requested to send to us._x000D_
+ _x000D_
+Investor Name	Entity Type	Documents requested by NAV_x000D_
+23 Holdings PLC	Post Liability Company (PLC)	1. PLC's Operating Agreement showing names of Members and Managing Member(s). Also list of authorized signers for the PLC and sample signatures.._x000D_
+2. Email address for Notifications._x000D_
+ Life Assurance Company (Thailand) Ltd.	Corporation (Non-US)	1. The investor is domiciled in non-US country (Thailand) having invested in an Onshore fund therefore we would require a completed, signed and dated copy of the attached IRS Form W-8BEN-E or Form W-8IMY or Form W-8EXP._x000D_
+Natasha Turnbough	Individual	1. Passport / Driver's License to satisfy the requirement of identification document._x000D_
+2. Email address for Notifications._x000D_
+Aroras Family Trust Share 	Trust (Grantor/Revocable/Living)	1. Complete Trust Document or Trust Certificate. (signed and dated)(Provided Formation Document - Trust deed is Unsigned)_x000D_
+Otto Nichols III	Individual	1. Email address for Notifications. _x000D_
+ _x000D_
+ _x000D_
+Thanks,_x000D_
+ _x000D_
+Avinash Anthoney_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t>Hello Sal,_x000D_
+ _x000D_
+Please find attached distribution notices for your review and approval._x000D_
+ _x000D_
+Further we are missing below details please provide us so we can process further._x000D_
+â€¢	Please provide email address of below investors so we can distribute notices to investors._x000D_
+Don Dovotsky_x000D_
+Daniel Dovotsky_x000D_
+Pamela _x000D_
+Joe Jonas_x000D_
+Simpsons Family_x000D_
+ _x000D_
+1. Please provide wire instructions for all investors, so we can process distribution wire to investors._x000D_
+2. For M Hoffman:-  Subscription document is received under name "M Hoffman" has different print name ""Vantage  Plan, LLC" in sub doc. Please confirm investor name._x000D_
+ _x000D_
+Harsh Khandelwal_x000D_
+Transfer Agency Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team. _x000D_
+ _x000D_
+I'm on this getting the requisite forms for this. I'm also in the middle of a lease renewal too and need to get that set up. In the meantime, here's a copy of my drivers license but Iâ€™ve lived in Miami for a year now and have added my Florida Power and Light Bill. Let me know what you think I should do? _x000D_
+Thanks!_x000D_
+Sal_x000D_
+922-2222-22_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Hello Salvatore,_x000D_
+ _x000D_
+Welcome Aboard!_x000D_
+ _x000D_
+As NAV will shortly begin Transfer Agent services for the Funds: Summertime Sadness M2, LLC_x000D_
+ _x000D_
+We at NAV, wish to connect with you and team over an onboarding call. Please share your availability for the call at 8:00 AM CT on 7/10/2023 for a quick walkthrough of the process._x000D_
+ _x000D_
+Agenda:-_x000D_
+1. Portal walkthrough and Fund Onboarding process_x000D_
+2. Addressing queries (if any)_x000D_
+Please advise on the Launch Date of the Fund._x000D_
+ _x000D_
+1.	Fund Onboarding Portal :_x000D_
+?	Before the call, please feel free to browse through the portal as we have created logins for the below listed email ids. Login credentials are already shared (under a separate head). In case of any changes, please feel free to write back to us._x000D_
+ _x000D_
+a.	&lt;sb@partners.com&gt;_x000D_
+?	The Fund Onboarding platform on NAV Portal is designed to facilitate faster, easier, and more secure medium of communication and documents sharing. All the documents will be requested and can be easily shared through the portal. Also, all your queries and concerns can be addressed via platformâ€™s comments section, minimizing the unsecured trails of email._x000D_
+                         Link for portal access -  https://www.navconsulting.net/_x000D_
+ _x000D_
+2.	Fund Setup Form (attached pdf) :_x000D_
+?	Please refer the Fund Setup Form attached here (also available on the portal). Request to please vet the details and provide the missing info by filling the form (editable pdf) and sharing it through the same Fund Onboarding portal access._x000D_
+?	Additionally, we have kept "May we contact directly with investors for ID, docs or general questions?"  as YES. This gives Fundâ€™s consent to NAV to communicate directly with Investors (keeping fund in CC). _x000D_
+                                   **In case of disconnect, please update the section in the form and upload the form on the portal._x000D_
+ _x000D_
+3.	NAV Portal :_x000D_
+?	Additionally, NAV Portal also gives access to Transfer Agency and Accounting data (critical information)._x000D_
+?	The RTA data is secure with continuously updated online access to investor capital activities and documents, bank transactions, compliance, and contact information. This information is considered personally identifying information (PII) and is confidential, so please exercise caution when selecting users to gain access to this data. Also, please notify NAV immediately if any user is compromised or leaves your firm._x000D_
+?	Provide the following for users authorizes to be granted NAV portal access:_x000D_
+User Name:	 _x000D_
+User Email:	 _x000D_
+User Phone:	 _x000D_
+ _x000D_
+4.	Password :- Please refer the document attached herewith. (confidential information)_x000D_
+ _x000D_
+Looking forward to connect and expecting you to have a smooth Onboarding journey. Your feedbacks will always be welcomed._x000D_
+_x000D_
+Thanks, _x000D_
+ _x000D_
+Sakshi Kanoongo_x000D_
+Transfer Agency Department</t>
   </si>
 </sst>
 </file>
@@ -265,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +874,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,14 +1194,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -620,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -634,7 +1243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -648,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -662,7 +1271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -676,7 +1285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -690,7 +1299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -704,7 +1313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -718,7 +1327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -732,7 +1341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -746,7 +1355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -760,7 +1369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -774,7 +1383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -788,7 +1397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -802,7 +1411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -816,7 +1425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -830,7 +1439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -844,7 +1453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -858,9 +1467,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -872,20 +1481,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
@@ -894,9 +1503,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -905,9 +1514,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -916,9 +1525,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>29</v>
@@ -927,9 +1536,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>32</v>
@@ -938,9 +1547,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -949,9 +1558,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>34</v>
@@ -960,9 +1569,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>35</v>
@@ -971,9 +1580,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
@@ -989,19 +1598,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1009,9 +1618,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -1021,7 +1630,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1033,7 +1642,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1654,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1666,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1678,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1081,7 +1690,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1702,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1714,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1726,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1128,6 +1737,49 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,138 +1788,702 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="C15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
